--- a/Data/E3.xlsx
+++ b/Data/E3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Generators_Categories" sheetId="12" r:id="rId8"/>
     <sheet name="HourlyVariation" sheetId="7" r:id="rId9"/>
     <sheet name="Scalars" sheetId="8" r:id="rId10"/>
+    <sheet name="Regulation" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>Coal</t>
   </si>
@@ -288,6 +289,18 @@
   </si>
   <si>
     <t>lineFOM/g_alias</t>
+  </si>
+  <si>
+    <t>CO2Cap/g</t>
+  </si>
+  <si>
+    <t>CO2Cap/CO2Cap</t>
+  </si>
+  <si>
+    <t>RESCap/g</t>
+  </si>
+  <si>
+    <t>RESCap/RESCap</t>
   </si>
 </sst>
 </file>
@@ -621,7 +634,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +778,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,6 +797,67 @@
       </c>
       <c r="B2">
         <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +870,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +973,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1378,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1548,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1708,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E3.xlsx
+++ b/Data/E3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +973,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,9 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
